--- a/src/test/resources/Response_data.xlsx
+++ b/src/test/resources/Response_data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="293">
   <si>
     <t xml:space="preserve">testcaseName</t>
   </si>
@@ -536,6 +536,372 @@
   </si>
   <si>
     <t>Jul23-GoogleSurvivors-SDET-183545176</t>
+  </si>
+  <si>
+    <t>15960</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-518028702</t>
+  </si>
+  <si>
+    <t>9077</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-SDET01--1393921187</t>
+  </si>
+  <si>
+    <t>U10953</t>
+  </si>
+  <si>
+    <t>GoogleSurvivors-0</t>
+  </si>
+  <si>
+    <t>3622169748</t>
+  </si>
+  <si>
+    <t>4756</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-RestAPI-503943815</t>
+  </si>
+  <si>
+    <t>2023-07-31T19:55:08.000+00:00</t>
+  </si>
+  <si>
+    <t>U10957</t>
+  </si>
+  <si>
+    <t>8736881030</t>
+  </si>
+  <si>
+    <t>15962</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-1759469127</t>
+  </si>
+  <si>
+    <t>16052</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-797033123</t>
+  </si>
+  <si>
+    <t>9141</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-SDET01-79393984</t>
+  </si>
+  <si>
+    <t>U11084</t>
+  </si>
+  <si>
+    <t>7637386517</t>
+  </si>
+  <si>
+    <t>4796</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-RestAPI-2114843972</t>
+  </si>
+  <si>
+    <t>2023-07-31T21:34:27.000+00:00</t>
+  </si>
+  <si>
+    <t>U11086</t>
+  </si>
+  <si>
+    <t>5506212338</t>
+  </si>
+  <si>
+    <t>16054</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET--2038396464</t>
+  </si>
+  <si>
+    <t>16057</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET--126811285</t>
+  </si>
+  <si>
+    <t>16058</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET--1181642322</t>
+  </si>
+  <si>
+    <t>Postman</t>
+  </si>
+  <si>
+    <t>9144</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-SDET01--1450241251</t>
+  </si>
+  <si>
+    <t>PostmanBatch1</t>
+  </si>
+  <si>
+    <t>9145</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-SDET01-1789519757</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>U11088</t>
+  </si>
+  <si>
+    <t>9373282912</t>
+  </si>
+  <si>
+    <t>U11089</t>
+  </si>
+  <si>
+    <t>1337149077</t>
+  </si>
+  <si>
+    <t>U11090</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>4181677809</t>
+  </si>
+  <si>
+    <t>Portland</t>
+  </si>
+  <si>
+    <t>PST</t>
+  </si>
+  <si>
+    <t>url2</t>
+  </si>
+  <si>
+    <t>B.Tech</t>
+  </si>
+  <si>
+    <t>M.Tech</t>
+  </si>
+  <si>
+    <t>This user is Staff</t>
+  </si>
+  <si>
+    <t>4799</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-RestAPI--1602964813</t>
+  </si>
+  <si>
+    <t>2023-07-31T21:37:33.000+00:00</t>
+  </si>
+  <si>
+    <t>chaining request Assignment</t>
+  </si>
+  <si>
+    <t>4800</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-RestAPI--335107020</t>
+  </si>
+  <si>
+    <t>2023-07-31T21:37:34.000+00:00</t>
+  </si>
+  <si>
+    <t>U11091</t>
+  </si>
+  <si>
+    <t>GoogleSurvivors-2</t>
+  </si>
+  <si>
+    <t>1735468125</t>
+  </si>
+  <si>
+    <t>16059</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET--1107085678</t>
+  </si>
+  <si>
+    <t>16064</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET--279681311</t>
+  </si>
+  <si>
+    <t>16065</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-1034938495</t>
+  </si>
+  <si>
+    <t>9147</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-SDET01--988058066</t>
+  </si>
+  <si>
+    <t>9148</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-SDET01-484104047</t>
+  </si>
+  <si>
+    <t>U11093</t>
+  </si>
+  <si>
+    <t>2763448695</t>
+  </si>
+  <si>
+    <t>U11094</t>
+  </si>
+  <si>
+    <t>9301958380</t>
+  </si>
+  <si>
+    <t>U11095</t>
+  </si>
+  <si>
+    <t>8963398876</t>
+  </si>
+  <si>
+    <t>4804</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-RestAPI--1178433171</t>
+  </si>
+  <si>
+    <t>2023-07-31T21:43:15.000+00:00</t>
+  </si>
+  <si>
+    <t>U11096</t>
+  </si>
+  <si>
+    <t>1783164834</t>
+  </si>
+  <si>
+    <t>16067</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-757272304</t>
+  </si>
+  <si>
+    <t>16069</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET--1095522458</t>
+  </si>
+  <si>
+    <t>16070</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-1515647520</t>
+  </si>
+  <si>
+    <t>9149</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-SDET01--1813223815</t>
+  </si>
+  <si>
+    <t>9150</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-SDET01--233482839</t>
+  </si>
+  <si>
+    <t>U11097</t>
+  </si>
+  <si>
+    <t>3905761163</t>
+  </si>
+  <si>
+    <t>U11098</t>
+  </si>
+  <si>
+    <t>4592294071</t>
+  </si>
+  <si>
+    <t>U11099</t>
+  </si>
+  <si>
+    <t>5353429779</t>
+  </si>
+  <si>
+    <t>4805</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-RestAPI--1344100102</t>
+  </si>
+  <si>
+    <t>2023-07-31T21:46:56.000+00:00</t>
+  </si>
+  <si>
+    <t>U11100</t>
+  </si>
+  <si>
+    <t>GoogleSurvivors-8</t>
+  </si>
+  <si>
+    <t>8215313636</t>
+  </si>
+  <si>
+    <t>16072</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET--1105213178</t>
+  </si>
+  <si>
+    <t>16075</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET--1394823232</t>
+  </si>
+  <si>
+    <t>16076</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET--1004858662</t>
+  </si>
+  <si>
+    <t>9152</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-SDET01--1049332284</t>
+  </si>
+  <si>
+    <t>U11102</t>
+  </si>
+  <si>
+    <t>4021131094</t>
+  </si>
+  <si>
+    <t>4806</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-RestAPI-1176120058</t>
+  </si>
+  <si>
+    <t>2023-07-31T21:50:29.000+00:00</t>
+  </si>
+  <si>
+    <t>U11103</t>
+  </si>
+  <si>
+    <t>9686039980</t>
+  </si>
+  <si>
+    <t>16079</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-2058188714</t>
   </si>
 </sst>
 </file>
@@ -670,10 +1036,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>291</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>292</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -744,10 +1110,10 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>282</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>283</v>
       </c>
       <c r="E2" t="s">
         <v>34</v>
@@ -756,10 +1122,10 @@
         <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>158</v>
+        <v>280</v>
       </c>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -821,10 +1187,10 @@
         <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>289</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
         <v>74</v>
@@ -833,7 +1199,7 @@
         <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>290</v>
       </c>
       <c r="G2" t="s">
         <v>77</v>
@@ -904,22 +1270,22 @@
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>286</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>287</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>282</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>284</v>
       </c>
       <c r="G2" t="s">
-        <v>166</v>
+        <v>288</v>
       </c>
       <c r="H2" t="s">
-        <v>162</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Response_data.xlsx
+++ b/src/test/resources/Response_data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="413">
   <si>
     <t xml:space="preserve">testcaseName</t>
   </si>
@@ -902,6 +902,366 @@
   </si>
   <si>
     <t>Jul23-GoogleSurvivors-SDET-2058188714</t>
+  </si>
+  <si>
+    <t>16729</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET--1126126565</t>
+  </si>
+  <si>
+    <t>16730</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-524501415</t>
+  </si>
+  <si>
+    <t>9606</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-SDET01-787830571</t>
+  </si>
+  <si>
+    <t>U11716</t>
+  </si>
+  <si>
+    <t>7893511011</t>
+  </si>
+  <si>
+    <t>5172</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-RestAPI-2123374318</t>
+  </si>
+  <si>
+    <t>2023-08-01T11:35:07.000+00:00</t>
+  </si>
+  <si>
+    <t>U11717</t>
+  </si>
+  <si>
+    <t>4626602767</t>
+  </si>
+  <si>
+    <t>16732</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-800122943</t>
+  </si>
+  <si>
+    <t>16734</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET--2023610971</t>
+  </si>
+  <si>
+    <t>16735</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET--1427859894</t>
+  </si>
+  <si>
+    <t>9612</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-SDET01-1686443524</t>
+  </si>
+  <si>
+    <t>U11724</t>
+  </si>
+  <si>
+    <t>2166925194</t>
+  </si>
+  <si>
+    <t>5178</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-RestAPI-361587619</t>
+  </si>
+  <si>
+    <t>2023-08-01T11:44:39.000+00:00</t>
+  </si>
+  <si>
+    <t>U11728</t>
+  </si>
+  <si>
+    <t>9026966901</t>
+  </si>
+  <si>
+    <t>16737</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET--858370835</t>
+  </si>
+  <si>
+    <t>16738</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-328154996</t>
+  </si>
+  <si>
+    <t>16739</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-333994312</t>
+  </si>
+  <si>
+    <t>9615</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-SDET01--2108185123</t>
+  </si>
+  <si>
+    <t>U11729</t>
+  </si>
+  <si>
+    <t>5127383737</t>
+  </si>
+  <si>
+    <t>5180</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-RestAPI-1172858097</t>
+  </si>
+  <si>
+    <t>2023-08-01T11:47:35.000+00:00</t>
+  </si>
+  <si>
+    <t>U11730</t>
+  </si>
+  <si>
+    <t>5202537773</t>
+  </si>
+  <si>
+    <t>16742</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-322051516</t>
+  </si>
+  <si>
+    <t>16743</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET--620941947</t>
+  </si>
+  <si>
+    <t>16744</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-1783025608</t>
+  </si>
+  <si>
+    <t>9616</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-SDET01-403227326</t>
+  </si>
+  <si>
+    <t>U11731</t>
+  </si>
+  <si>
+    <t>3943702565</t>
+  </si>
+  <si>
+    <t>5181</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-RestAPI-1654395229</t>
+  </si>
+  <si>
+    <t>2023-08-01T11:50:05.000+00:00</t>
+  </si>
+  <si>
+    <t>U11732</t>
+  </si>
+  <si>
+    <t>9095729302</t>
+  </si>
+  <si>
+    <t>16745</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET--633930872</t>
+  </si>
+  <si>
+    <t>16749</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-1142864366</t>
+  </si>
+  <si>
+    <t>16750</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET--1166287434</t>
+  </si>
+  <si>
+    <t>9618</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-SDET01--1852926486</t>
+  </si>
+  <si>
+    <t>U11739</t>
+  </si>
+  <si>
+    <t>1114263027</t>
+  </si>
+  <si>
+    <t>5183</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-RestAPI--1112370230</t>
+  </si>
+  <si>
+    <t>2023-08-01T11:54:49.000+00:00</t>
+  </si>
+  <si>
+    <t>U11740</t>
+  </si>
+  <si>
+    <t>5591041838</t>
+  </si>
+  <si>
+    <t>16751</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET--644867227</t>
+  </si>
+  <si>
+    <t>16758</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET--350793726</t>
+  </si>
+  <si>
+    <t>16759</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET--831418860</t>
+  </si>
+  <si>
+    <t>9627</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-SDET01-1913957103</t>
+  </si>
+  <si>
+    <t>U11762</t>
+  </si>
+  <si>
+    <t>3956612894</t>
+  </si>
+  <si>
+    <t>5191</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-RestAPI--712595577</t>
+  </si>
+  <si>
+    <t>2023-08-01T12:04:28.000+00:00</t>
+  </si>
+  <si>
+    <t>U11763</t>
+  </si>
+  <si>
+    <t>1792431629</t>
+  </si>
+  <si>
+    <t>16761</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET--2134748204</t>
+  </si>
+  <si>
+    <t>16765</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET--1873298936</t>
+  </si>
+  <si>
+    <t>16766</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET--176942067</t>
+  </si>
+  <si>
+    <t>9630</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-SDET01-1914476156</t>
+  </si>
+  <si>
+    <t>U11768</t>
+  </si>
+  <si>
+    <t>2947048826</t>
+  </si>
+  <si>
+    <t>5194</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-RestAPI-730161798</t>
+  </si>
+  <si>
+    <t>2023-08-01T12:09:47.000+00:00</t>
+  </si>
+  <si>
+    <t>U11769</t>
+  </si>
+  <si>
+    <t>1165106565</t>
+  </si>
+  <si>
+    <t>16767</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-1028280808</t>
+  </si>
+  <si>
+    <t>16781</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET--988603342</t>
+  </si>
+  <si>
+    <t>16782</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-1323689693</t>
+  </si>
+  <si>
+    <t>9650</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-SDET01--1079015148</t>
+  </si>
+  <si>
+    <t>U11794</t>
+  </si>
+  <si>
+    <t>5525351201</t>
+  </si>
+  <si>
+    <t>5203</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-RestAPI--1622929849</t>
+  </si>
+  <si>
+    <t>2023-08-01T12:20:35.000+00:00</t>
+  </si>
+  <si>
+    <t>U11795</t>
+  </si>
+  <si>
+    <t>6906125219</t>
+  </si>
+  <si>
+    <t>16784</t>
+  </si>
+  <si>
+    <t>Jul23-GoogleSurvivors-SDET-622329321</t>
   </si>
 </sst>
 </file>
@@ -1036,10 +1396,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>411</v>
       </c>
       <c r="C2" t="s">
-        <v>292</v>
+        <v>412</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -1110,10 +1470,10 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>282</v>
+        <v>402</v>
       </c>
       <c r="D2" t="s">
-        <v>283</v>
+        <v>403</v>
       </c>
       <c r="E2" t="s">
         <v>34</v>
@@ -1122,10 +1482,10 @@
         <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="H2" t="s">
-        <v>281</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -1187,10 +1547,10 @@
         <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>289</v>
+        <v>409</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
         <v>74</v>
@@ -1199,7 +1559,7 @@
         <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>290</v>
+        <v>410</v>
       </c>
       <c r="G2" t="s">
         <v>77</v>
@@ -1270,22 +1630,22 @@
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="D2" t="s">
-        <v>287</v>
+        <v>407</v>
       </c>
       <c r="E2" t="s">
-        <v>282</v>
+        <v>402</v>
       </c>
       <c r="F2" t="s">
-        <v>284</v>
+        <v>404</v>
       </c>
       <c r="G2" t="s">
-        <v>288</v>
+        <v>408</v>
       </c>
       <c r="H2" t="s">
-        <v>284</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
